--- a/Programme planification SS+ST Juin sites_ 20052024.xlsx
+++ b/Programme planification SS+ST Juin sites_ 20052024.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad X1\Desktop\orange2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0C05EA4-B92C-482B-A24E-8E86BF49A9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="19418" windowHeight="10298" tabRatio="599"/>
   </bookViews>
   <sheets>
     <sheet name="FTTS " sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FTTS '!$A$1:$N$272</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2724" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2791" uniqueCount="824">
   <si>
     <t>Code Site</t>
   </si>
@@ -2334,12 +2333,189 @@
   </si>
   <si>
     <t>Du 01/06/2024 Au 30/06/2024</t>
+  </si>
+  <si>
+    <t>dfezfegrgfz</t>
+  </si>
+  <si>
+    <t>rgaregfregre</t>
+  </si>
+  <si>
+    <t>rrefe</t>
+  </si>
+  <si>
+    <t>efefezfezfez</t>
+  </si>
+  <si>
+    <t>zdzdzd</t>
+  </si>
+  <si>
+    <t>zd</t>
+  </si>
+  <si>
+    <t>F3R33Z</t>
+  </si>
+  <si>
+    <t>33R3R</t>
+  </si>
+  <si>
+    <t>FVRV</t>
+  </si>
+  <si>
+    <t>SGDHNDKS</t>
+  </si>
+  <si>
+    <t>EPITGS</t>
+  </si>
+  <si>
+    <t>SDOPPZD</t>
+  </si>
+  <si>
+    <t>PKFFZKDZ</t>
+  </si>
+  <si>
+    <t>FJFEZIFJEFN</t>
+  </si>
+  <si>
+    <t>FEZEF</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>SDZFZ</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>SDDZZFEZFEZV</t>
+  </si>
+  <si>
+    <t>ERGHTH</t>
+  </si>
+  <si>
+    <t>THTZH6</t>
+  </si>
+  <si>
+    <t>RGAHTHTH</t>
+  </si>
+  <si>
+    <t>THTEHTHT</t>
+  </si>
+  <si>
+    <t>THYJUY?</t>
+  </si>
+  <si>
+    <t>U.OIL</t>
+  </si>
+  <si>
+    <t>K?U</t>
+  </si>
+  <si>
+    <t>IUTLK</t>
+  </si>
+  <si>
+    <t>?EYJ</t>
+  </si>
+  <si>
+    <t>YJYYT</t>
+  </si>
+  <si>
+    <t>JYUK</t>
+  </si>
+  <si>
+    <t>YU</t>
+  </si>
+  <si>
+    <t>KJ</t>
+  </si>
+  <si>
+    <t>YTK</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>HJTQ</t>
+  </si>
+  <si>
+    <t>EFGRG</t>
+  </si>
+  <si>
+    <t>RGZTHTH</t>
+  </si>
+  <si>
+    <t>TTHTR</t>
+  </si>
+  <si>
+    <t>YJ</t>
+  </si>
+  <si>
+    <t>YTKJY</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>JY</t>
+  </si>
+  <si>
+    <t>JYJFrsG</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>RG</t>
+  </si>
+  <si>
+    <t>REHYTJYU</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>GH</t>
+  </si>
+  <si>
+    <t>TRFNBRF</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>GVDS</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>SDV</t>
+  </si>
+  <si>
+    <t>SDBR</t>
+  </si>
+  <si>
+    <t>VDS</t>
+  </si>
+  <si>
+    <t>GD</t>
+  </si>
+  <si>
+    <t>FDSB</t>
+  </si>
+  <si>
+    <t>Dsb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2742,32 +2918,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.46484375" defaultRowHeight="10.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" style="5"/>
-    <col min="4" max="5" width="19.08984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" style="5"/>
-    <col min="7" max="7" width="16.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.90625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="10.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.453125" style="5"/>
+    <col min="1" max="1" width="11.46484375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.73046875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.46484375" style="5"/>
+    <col min="4" max="5" width="19.06640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.46484375" style="5"/>
+    <col min="7" max="7" width="16.265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.9296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.19921875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="10.46484375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.46484375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.53125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.73046875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.46484375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2811,7 +2986,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>762</v>
       </c>
@@ -2830,6 +3005,9 @@
       <c r="G2" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="H2" s="5" t="s">
+        <v>766</v>
+      </c>
       <c r="I2" s="5" t="s">
         <v>512</v>
       </c>
@@ -2842,8 +3020,11 @@
       <c r="L2" s="8" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="12.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N2" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="12.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
@@ -2862,6 +3043,9 @@
       <c r="G3" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="H3" s="5" t="s">
+        <v>765</v>
+      </c>
       <c r="I3" s="5" t="s">
         <v>19</v>
       </c>
@@ -2874,8 +3058,11 @@
       <c r="L3" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N3" s="5" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>23</v>
       </c>
@@ -2894,6 +3081,9 @@
       <c r="G4" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="H4" s="5" t="s">
+        <v>767</v>
+      </c>
       <c r="I4" s="5" t="s">
         <v>19</v>
       </c>
@@ -2906,8 +3096,11 @@
       <c r="L4" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N4" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>25</v>
       </c>
@@ -2926,6 +3119,9 @@
       <c r="G5" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="H5" s="5" t="s">
+        <v>768</v>
+      </c>
       <c r="I5" s="5" t="s">
         <v>19</v>
       </c>
@@ -2938,8 +3134,11 @@
       <c r="L5" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N5" s="5" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -2958,6 +3157,9 @@
       <c r="G6" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="H6" s="5" t="s">
+        <v>769</v>
+      </c>
       <c r="I6" s="5" t="s">
         <v>19</v>
       </c>
@@ -2970,8 +3172,11 @@
       <c r="L6" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N6" s="5" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -2990,6 +3195,9 @@
       <c r="G7" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="H7" s="5" t="s">
+        <v>770</v>
+      </c>
       <c r="I7" s="5" t="s">
         <v>19</v>
       </c>
@@ -3002,8 +3210,11 @@
       <c r="L7" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N7" s="5" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>32</v>
       </c>
@@ -3022,6 +3233,9 @@
       <c r="G8" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="H8" s="5" t="s">
+        <v>765</v>
+      </c>
       <c r="I8" s="5" t="s">
         <v>19</v>
       </c>
@@ -3034,8 +3248,11 @@
       <c r="L8" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N8" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>34</v>
       </c>
@@ -3054,6 +3271,9 @@
       <c r="G9" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="H9" s="5" t="s">
+        <v>771</v>
+      </c>
       <c r="I9" s="5" t="s">
         <v>19</v>
       </c>
@@ -3066,8 +3286,11 @@
       <c r="L9" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N9" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>36</v>
       </c>
@@ -3086,6 +3309,9 @@
       <c r="G10" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="H10" s="5" t="s">
+        <v>772</v>
+      </c>
       <c r="I10" s="5" t="s">
         <v>19</v>
       </c>
@@ -3098,8 +3324,11 @@
       <c r="L10" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N10" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>38</v>
       </c>
@@ -3118,6 +3347,9 @@
       <c r="G11" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="H11" s="5" t="s">
+        <v>773</v>
+      </c>
       <c r="I11" s="5" t="s">
         <v>19</v>
       </c>
@@ -3130,8 +3362,11 @@
       <c r="L11" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N11" s="5" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>40</v>
       </c>
@@ -3150,6 +3385,9 @@
       <c r="G12" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="H12" s="5" t="s">
+        <v>801</v>
+      </c>
       <c r="I12" s="5" t="s">
         <v>19</v>
       </c>
@@ -3162,8 +3400,11 @@
       <c r="L12" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N12" s="5" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>43</v>
       </c>
@@ -3182,6 +3423,9 @@
       <c r="G13" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="H13" s="5" t="s">
+        <v>802</v>
+      </c>
       <c r="I13" s="5" t="s">
         <v>19</v>
       </c>
@@ -3194,8 +3438,11 @@
       <c r="L13" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N13" s="5" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>45</v>
       </c>
@@ -3214,6 +3461,9 @@
       <c r="G14" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="H14" s="5" t="s">
+        <v>803</v>
+      </c>
       <c r="I14" s="5" t="s">
         <v>19</v>
       </c>
@@ -3226,8 +3476,11 @@
       <c r="L14" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N14" s="5" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>47</v>
       </c>
@@ -3246,6 +3499,9 @@
       <c r="G15" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="H15" s="5" t="s">
+        <v>803</v>
+      </c>
       <c r="I15" s="5" t="s">
         <v>19</v>
       </c>
@@ -3258,8 +3514,11 @@
       <c r="L15" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N15" s="5" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>49</v>
       </c>
@@ -3278,6 +3537,9 @@
       <c r="G16" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="H16" s="5" t="s">
+        <v>804</v>
+      </c>
       <c r="I16" s="5" t="s">
         <v>19</v>
       </c>
@@ -3290,8 +3552,11 @@
       <c r="L16" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N16" s="5" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>51</v>
       </c>
@@ -3310,6 +3575,9 @@
       <c r="G17" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="H17" s="5" t="s">
+        <v>805</v>
+      </c>
       <c r="I17" s="5" t="s">
         <v>19</v>
       </c>
@@ -3322,8 +3590,11 @@
       <c r="L17" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N17" s="5" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>53</v>
       </c>
@@ -3342,6 +3613,9 @@
       <c r="G18" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="H18" s="5" t="s">
+        <v>806</v>
+      </c>
       <c r="I18" s="5" t="s">
         <v>19</v>
       </c>
@@ -3354,8 +3628,11 @@
       <c r="L18" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N18" s="5" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>55</v>
       </c>
@@ -3374,6 +3651,9 @@
       <c r="G19" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="H19" s="5" t="s">
+        <v>807</v>
+      </c>
       <c r="I19" s="5" t="s">
         <v>19</v>
       </c>
@@ -3386,8 +3666,11 @@
       <c r="L19" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N19" s="5" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>57</v>
       </c>
@@ -3406,6 +3689,9 @@
       <c r="G20" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="H20" s="5" t="s">
+        <v>808</v>
+      </c>
       <c r="I20" s="5" t="s">
         <v>19</v>
       </c>
@@ -3418,8 +3704,11 @@
       <c r="L20" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N20" s="5" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>59</v>
       </c>
@@ -3438,6 +3727,9 @@
       <c r="G21" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="H21" s="5" t="s">
+        <v>809</v>
+      </c>
       <c r="I21" s="5" t="s">
         <v>19</v>
       </c>
@@ -3450,8 +3742,11 @@
       <c r="L21" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N21" s="5" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>61</v>
       </c>
@@ -3470,6 +3765,9 @@
       <c r="G22" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="H22" s="5" t="s">
+        <v>809</v>
+      </c>
       <c r="I22" s="5" t="s">
         <v>19</v>
       </c>
@@ -3482,8 +3780,11 @@
       <c r="L22" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N22" s="5" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>63</v>
       </c>
@@ -3502,6 +3803,9 @@
       <c r="G23" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="H23" s="5" t="s">
+        <v>810</v>
+      </c>
       <c r="I23" s="5" t="s">
         <v>19</v>
       </c>
@@ -3514,8 +3818,11 @@
       <c r="L23" s="8" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N23" s="5" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>66</v>
       </c>
@@ -3534,6 +3841,9 @@
       <c r="G24" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="H24" s="5" t="s">
+        <v>811</v>
+      </c>
       <c r="I24" s="5" t="s">
         <v>19</v>
       </c>
@@ -3546,8 +3856,11 @@
       <c r="L24" s="8" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N24" s="5" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>68</v>
       </c>
@@ -3566,6 +3879,9 @@
       <c r="G25" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="H25" s="5" t="s">
+        <v>812</v>
+      </c>
       <c r="I25" s="5" t="s">
         <v>19</v>
       </c>
@@ -3578,8 +3894,11 @@
       <c r="L25" s="8" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N25" s="5" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>70</v>
       </c>
@@ -3598,6 +3917,9 @@
       <c r="G26" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="H26" s="5" t="s">
+        <v>813</v>
+      </c>
       <c r="I26" s="5" t="s">
         <v>19</v>
       </c>
@@ -3610,8 +3932,11 @@
       <c r="L26" s="8" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N26" s="5" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>73</v>
       </c>
@@ -3630,6 +3955,9 @@
       <c r="G27" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="H27" s="5" t="s">
+        <v>814</v>
+      </c>
       <c r="I27" s="5" t="s">
         <v>19</v>
       </c>
@@ -3642,8 +3970,11 @@
       <c r="L27" s="8" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N27" s="5" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>75</v>
       </c>
@@ -3662,6 +3993,9 @@
       <c r="G28" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="H28" s="5" t="s">
+        <v>815</v>
+      </c>
       <c r="I28" s="5" t="s">
         <v>19</v>
       </c>
@@ -3674,8 +4008,11 @@
       <c r="L28" s="8" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N28" s="5" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>77</v>
       </c>
@@ -3694,6 +4031,9 @@
       <c r="G29" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="H29" s="5" t="s">
+        <v>816</v>
+      </c>
       <c r="I29" s="5" t="s">
         <v>19</v>
       </c>
@@ -3706,8 +4046,11 @@
       <c r="L29" s="8" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N29" s="5" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>79</v>
       </c>
@@ -3726,6 +4069,9 @@
       <c r="G30" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="H30" s="5" t="s">
+        <v>817</v>
+      </c>
       <c r="I30" s="5" t="s">
         <v>19</v>
       </c>
@@ -3738,8 +4084,11 @@
       <c r="L30" s="8" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N30" s="5" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>81</v>
       </c>
@@ -3758,6 +4107,9 @@
       <c r="G31" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="H31" s="5" t="s">
+        <v>818</v>
+      </c>
       <c r="I31" s="5" t="s">
         <v>83</v>
       </c>
@@ -3770,8 +4122,11 @@
       <c r="L31" s="8" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N31" s="5" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>87</v>
       </c>
@@ -3790,6 +4145,9 @@
       <c r="G32" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="H32" s="5" t="s">
+        <v>819</v>
+      </c>
       <c r="I32" s="5" t="s">
         <v>83</v>
       </c>
@@ -3802,8 +4160,11 @@
       <c r="L32" s="8" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N32" s="5" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>89</v>
       </c>
@@ -3822,6 +4183,9 @@
       <c r="G33" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="H33" s="5" t="s">
+        <v>820</v>
+      </c>
       <c r="I33" s="5" t="s">
         <v>83</v>
       </c>
@@ -3834,8 +4198,11 @@
       <c r="L33" s="8" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N33" s="5" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>92</v>
       </c>
@@ -3854,6 +4221,9 @@
       <c r="G34" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="H34" s="5" t="s">
+        <v>821</v>
+      </c>
       <c r="I34" s="5" t="s">
         <v>83</v>
       </c>
@@ -3867,7 +4237,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
         <v>94</v>
       </c>
@@ -3886,6 +4256,9 @@
       <c r="G35" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="H35" s="5" t="s">
+        <v>823</v>
+      </c>
       <c r="I35" s="5" t="s">
         <v>83</v>
       </c>
@@ -3899,7 +4272,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>96</v>
       </c>
@@ -3918,6 +4291,9 @@
       <c r="G36" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="H36" s="5" t="s">
+        <v>822</v>
+      </c>
       <c r="I36" s="5" t="s">
         <v>83</v>
       </c>
@@ -3931,7 +4307,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>99</v>
       </c>
@@ -3963,7 +4339,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
         <v>102</v>
       </c>
@@ -3995,7 +4371,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>104</v>
       </c>
@@ -4027,7 +4403,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>106</v>
       </c>
@@ -4059,7 +4435,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>108</v>
       </c>
@@ -4091,7 +4467,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
         <v>111</v>
       </c>
@@ -4123,7 +4499,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
         <v>113</v>
       </c>
@@ -4155,7 +4531,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
         <v>116</v>
       </c>
@@ -4187,7 +4563,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
         <v>118</v>
       </c>
@@ -4219,7 +4595,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
         <v>121</v>
       </c>
@@ -4251,7 +4627,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>124</v>
       </c>
@@ -4283,7 +4659,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>126</v>
       </c>
@@ -4315,7 +4691,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
         <v>128</v>
       </c>
@@ -4347,7 +4723,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
         <v>130</v>
       </c>
@@ -4379,7 +4755,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
         <v>132</v>
       </c>
@@ -4411,7 +4787,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
         <v>137</v>
       </c>
@@ -4443,7 +4819,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
         <v>139</v>
       </c>
@@ -4475,7 +4851,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
         <v>142</v>
       </c>
@@ -4507,7 +4883,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>144</v>
       </c>
@@ -4539,7 +4915,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
         <v>146</v>
       </c>
@@ -4571,7 +4947,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="6" t="s">
         <v>148</v>
       </c>
@@ -4603,7 +4979,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
         <v>151</v>
       </c>
@@ -4635,7 +5011,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="6" t="s">
         <v>153</v>
       </c>
@@ -4667,7 +5043,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
         <v>155</v>
       </c>
@@ -4699,7 +5075,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
         <v>157</v>
       </c>
@@ -4731,7 +5107,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
         <v>160</v>
       </c>
@@ -4763,7 +5139,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>162</v>
       </c>
@@ -4795,7 +5171,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
         <v>164</v>
       </c>
@@ -4827,7 +5203,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
         <v>166</v>
       </c>
@@ -4859,7 +5235,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
         <v>169</v>
       </c>
@@ -4891,7 +5267,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="6" t="s">
         <v>171</v>
       </c>
@@ -4923,7 +5299,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="6" t="s">
         <v>173</v>
       </c>
@@ -4955,7 +5331,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="6" t="s">
         <v>176</v>
       </c>
@@ -4987,7 +5363,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="6" t="s">
         <v>178</v>
       </c>
@@ -5019,7 +5395,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
         <v>181</v>
       </c>
@@ -5051,7 +5427,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
         <v>183</v>
       </c>
@@ -5083,7 +5459,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
         <v>185</v>
       </c>
@@ -5115,7 +5491,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="6" t="s">
         <v>188</v>
       </c>
@@ -5147,7 +5523,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" s="6" t="s">
         <v>191</v>
       </c>
@@ -5179,7 +5555,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="6" t="s">
         <v>194</v>
       </c>
@@ -5211,7 +5587,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="6" t="s">
         <v>197</v>
       </c>
@@ -5243,7 +5619,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="6" t="s">
         <v>199</v>
       </c>
@@ -5275,7 +5651,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
         <v>202</v>
       </c>
@@ -5307,7 +5683,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
         <v>205</v>
       </c>
@@ -5339,7 +5715,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="6" t="s">
         <v>208</v>
       </c>
@@ -5371,7 +5747,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="6" t="s">
         <v>211</v>
       </c>
@@ -5403,7 +5779,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" s="6" t="s">
         <v>214</v>
       </c>
@@ -5435,7 +5811,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" s="6" t="s">
         <v>217</v>
       </c>
@@ -5467,7 +5843,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" s="6" t="s">
         <v>220</v>
       </c>
@@ -5499,7 +5875,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" s="6" t="s">
         <v>222</v>
       </c>
@@ -5531,7 +5907,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
         <v>225</v>
       </c>
@@ -5563,7 +5939,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" s="6" t="s">
         <v>228</v>
       </c>
@@ -5595,7 +5971,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" s="6" t="s">
         <v>231</v>
       </c>
@@ -5627,7 +6003,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" s="6" t="s">
         <v>234</v>
       </c>
@@ -5659,7 +6035,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" s="6" t="s">
         <v>237</v>
       </c>
@@ -5691,7 +6067,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" s="6" t="s">
         <v>240</v>
       </c>
@@ -5723,7 +6099,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" s="6" t="s">
         <v>243</v>
       </c>
@@ -5755,7 +6131,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" s="6" t="s">
         <v>246</v>
       </c>
@@ -5787,7 +6163,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>249</v>
       </c>
@@ -5819,7 +6195,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" s="6" t="s">
         <v>252</v>
       </c>
@@ -5851,7 +6227,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="6" t="s">
         <v>255</v>
       </c>
@@ -5883,7 +6259,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" s="6" t="s">
         <v>258</v>
       </c>
@@ -5915,7 +6291,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" s="6" t="s">
         <v>261</v>
       </c>
@@ -5947,7 +6323,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" s="6" t="s">
         <v>264</v>
       </c>
@@ -5979,7 +6355,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" s="6" t="s">
         <v>267</v>
       </c>
@@ -6011,7 +6387,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" s="6" t="s">
         <v>270</v>
       </c>
@@ -6043,7 +6419,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" s="6" t="s">
         <v>273</v>
       </c>
@@ -6075,7 +6451,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" s="6" t="s">
         <v>275</v>
       </c>
@@ -6107,7 +6483,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" s="6" t="s">
         <v>278</v>
       </c>
@@ -6139,7 +6515,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" s="6" t="s">
         <v>281</v>
       </c>
@@ -6171,7 +6547,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" s="6" t="s">
         <v>284</v>
       </c>
@@ -6203,7 +6579,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" s="6" t="s">
         <v>286</v>
       </c>
@@ -6235,7 +6611,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" s="6" t="s">
         <v>289</v>
       </c>
@@ -6267,7 +6643,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" s="6" t="s">
         <v>292</v>
       </c>
@@ -6299,7 +6675,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
         <v>295</v>
       </c>
@@ -6331,7 +6707,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
         <v>300</v>
       </c>
@@ -6363,7 +6739,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
         <v>302</v>
       </c>
@@ -6395,7 +6771,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
         <v>304</v>
       </c>
@@ -6427,7 +6803,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
         <v>306</v>
       </c>
@@ -6459,7 +6835,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
         <v>308</v>
       </c>
@@ -6491,7 +6867,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
         <v>310</v>
       </c>
@@ -6523,7 +6899,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
         <v>312</v>
       </c>
@@ -6555,7 +6931,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
         <v>314</v>
       </c>
@@ -6587,7 +6963,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
         <v>316</v>
       </c>
@@ -6619,7 +6995,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
         <v>318</v>
       </c>
@@ -6651,7 +7027,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
         <v>320</v>
       </c>
@@ -6683,7 +7059,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" s="5" t="s">
         <v>323</v>
       </c>
@@ -6715,7 +7091,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" s="5" t="s">
         <v>326</v>
       </c>
@@ -6747,7 +7123,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125" s="5" t="s">
         <v>329</v>
       </c>
@@ -6779,7 +7155,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" s="5" t="s">
         <v>331</v>
       </c>
@@ -6811,7 +7187,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
         <v>333</v>
       </c>
@@ -6843,7 +7219,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" s="5" t="s">
         <v>336</v>
       </c>
@@ -6875,7 +7251,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129" s="5" t="s">
         <v>339</v>
       </c>
@@ -6907,7 +7283,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130" s="5" t="s">
         <v>342</v>
       </c>
@@ -6939,7 +7315,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="s">
         <v>345</v>
       </c>
@@ -6971,7 +7347,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132" s="5" t="s">
         <v>350</v>
       </c>
@@ -7003,7 +7379,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="s">
         <v>352</v>
       </c>
@@ -7035,7 +7411,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134" s="5" t="s">
         <v>354</v>
       </c>
@@ -7067,7 +7443,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
         <v>356</v>
       </c>
@@ -7099,7 +7475,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136" s="5" t="s">
         <v>359</v>
       </c>
@@ -7131,7 +7507,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137" s="5" t="s">
         <v>362</v>
       </c>
@@ -7163,7 +7539,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
         <v>364</v>
       </c>
@@ -7195,7 +7571,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
         <v>366</v>
       </c>
@@ -7227,7 +7603,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140" s="5" t="s">
         <v>368</v>
       </c>
@@ -7259,7 +7635,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
         <v>371</v>
       </c>
@@ -7291,7 +7667,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142" s="5" t="s">
         <v>373</v>
       </c>
@@ -7323,7 +7699,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
         <v>375</v>
       </c>
@@ -7355,7 +7731,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144" s="5" t="s">
         <v>378</v>
       </c>
@@ -7387,7 +7763,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145" s="5" t="s">
         <v>381</v>
       </c>
@@ -7419,7 +7795,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146" s="5" t="s">
         <v>383</v>
       </c>
@@ -7451,7 +7827,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147" s="5" t="s">
         <v>386</v>
       </c>
@@ -7483,7 +7859,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148" s="5" t="s">
         <v>388</v>
       </c>
@@ -7515,7 +7891,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" s="5" t="s">
         <v>390</v>
       </c>
@@ -7547,7 +7923,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" s="5" t="s">
         <v>392</v>
       </c>
@@ -7579,7 +7955,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151" s="5" t="s">
         <v>397</v>
       </c>
@@ -7611,7 +7987,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152" s="5" t="s">
         <v>400</v>
       </c>
@@ -7643,7 +8019,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153" s="5" t="s">
         <v>403</v>
       </c>
@@ -7675,7 +8051,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154" s="5" t="s">
         <v>406</v>
       </c>
@@ -7707,7 +8083,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155" s="5" t="s">
         <v>409</v>
       </c>
@@ -7739,7 +8115,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156" s="5" t="s">
         <v>412</v>
       </c>
@@ -7771,7 +8147,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157" s="5" t="s">
         <v>415</v>
       </c>
@@ -7803,7 +8179,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158" s="5" t="s">
         <v>418</v>
       </c>
@@ -7835,7 +8211,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159" s="5" t="s">
         <v>421</v>
       </c>
@@ -7867,7 +8243,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160" s="5" t="s">
         <v>424</v>
       </c>
@@ -7899,7 +8275,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161" s="5" t="s">
         <v>429</v>
       </c>
@@ -7931,7 +8307,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162" s="5" t="s">
         <v>432</v>
       </c>
@@ -7963,7 +8339,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163" s="5" t="s">
         <v>435</v>
       </c>
@@ -7995,7 +8371,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164" s="5" t="s">
         <v>438</v>
       </c>
@@ -8027,7 +8403,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165" s="5" t="s">
         <v>441</v>
       </c>
@@ -8059,7 +8435,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166" s="5" t="s">
         <v>443</v>
       </c>
@@ -8091,7 +8467,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167" s="5" t="s">
         <v>445</v>
       </c>
@@ -8123,7 +8499,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A168" s="5" t="s">
         <v>448</v>
       </c>
@@ -8155,7 +8531,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A169" s="5" t="s">
         <v>451</v>
       </c>
@@ -8187,7 +8563,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A170" s="5" t="s">
         <v>453</v>
       </c>
@@ -8219,7 +8595,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A171" s="5" t="s">
         <v>456</v>
       </c>
@@ -8251,7 +8627,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A172" s="5" t="s">
         <v>459</v>
       </c>
@@ -8283,7 +8659,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A173" s="5" t="s">
         <v>462</v>
       </c>
@@ -8315,7 +8691,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A174" s="5" t="s">
         <v>464</v>
       </c>
@@ -8347,7 +8723,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A175" s="5" t="s">
         <v>469</v>
       </c>
@@ -8379,7 +8755,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A176" s="5" t="s">
         <v>472</v>
       </c>
@@ -8411,7 +8787,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A177" s="5" t="s">
         <v>475</v>
       </c>
@@ -8443,7 +8819,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A178" s="5" t="s">
         <v>478</v>
       </c>
@@ -8475,7 +8851,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A179" s="5" t="s">
         <v>481</v>
       </c>
@@ -8507,7 +8883,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A180" s="5" t="s">
         <v>484</v>
       </c>
@@ -8539,7 +8915,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A181" s="5" t="s">
         <v>487</v>
       </c>
@@ -8571,7 +8947,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A182" s="5" t="s">
         <v>490</v>
       </c>
@@ -8603,7 +8979,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A183" s="5" t="s">
         <v>493</v>
       </c>
@@ -8635,7 +9011,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A184" s="5" t="s">
         <v>496</v>
       </c>
@@ -8667,7 +9043,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A185" s="5" t="s">
         <v>499</v>
       </c>
@@ -8699,7 +9075,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A186" s="5" t="s">
         <v>502</v>
       </c>
@@ -8731,7 +9107,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A187" s="5" t="s">
         <v>505</v>
       </c>
@@ -8763,7 +9139,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A188" s="5" t="s">
         <v>508</v>
       </c>
@@ -8795,7 +9171,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A189" s="5" t="s">
         <v>511</v>
       </c>
@@ -8827,7 +9203,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A190" s="5" t="s">
         <v>516</v>
       </c>
@@ -8859,7 +9235,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A191" s="5" t="s">
         <v>519</v>
       </c>
@@ -8891,7 +9267,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A192" s="5" t="s">
         <v>522</v>
       </c>
@@ -8923,7 +9299,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A193" s="5" t="s">
         <v>525</v>
       </c>
@@ -8955,7 +9331,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A194" s="5" t="s">
         <v>528</v>
       </c>
@@ -8987,7 +9363,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A195" s="5" t="s">
         <v>531</v>
       </c>
@@ -9019,7 +9395,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A196" s="5" t="s">
         <v>534</v>
       </c>
@@ -9051,7 +9427,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A197" s="5" t="s">
         <v>537</v>
       </c>
@@ -9083,7 +9459,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A198" s="5" t="s">
         <v>540</v>
       </c>
@@ -9115,7 +9491,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A199" s="5" t="s">
         <v>542</v>
       </c>
@@ -9147,7 +9523,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A200" s="5" t="s">
         <v>544</v>
       </c>
@@ -9179,7 +9555,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A201" s="5" t="s">
         <v>547</v>
       </c>
@@ -9211,7 +9587,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A202" s="5" t="s">
         <v>550</v>
       </c>
@@ -9243,7 +9619,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A203" s="5" t="s">
         <v>553</v>
       </c>
@@ -9275,7 +9651,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A204" s="5" t="s">
         <v>556</v>
       </c>
@@ -9307,7 +9683,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A205" s="5" t="s">
         <v>562</v>
       </c>
@@ -9339,7 +9715,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="206" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A206" s="5" t="s">
         <v>565</v>
       </c>
@@ -9371,7 +9747,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A207" s="5" t="s">
         <v>568</v>
       </c>
@@ -9403,7 +9779,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A208" s="5" t="s">
         <v>571</v>
       </c>
@@ -9435,7 +9811,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A209" s="5" t="s">
         <v>574</v>
       </c>
@@ -9467,7 +9843,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A210" s="5" t="s">
         <v>577</v>
       </c>
@@ -9499,7 +9875,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A211" s="5" t="s">
         <v>580</v>
       </c>
@@ -9531,7 +9907,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A212" s="5" t="s">
         <v>583</v>
       </c>
@@ -9563,7 +9939,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A213" s="5" t="s">
         <v>586</v>
       </c>
@@ -9595,7 +9971,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A214" s="5" t="s">
         <v>589</v>
       </c>
@@ -9627,7 +10003,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A215" s="5" t="s">
         <v>592</v>
       </c>
@@ -9659,7 +10035,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A216" s="5" t="s">
         <v>595</v>
       </c>
@@ -9691,7 +10067,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A217" s="5" t="s">
         <v>598</v>
       </c>
@@ -9723,7 +10099,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A218" s="5" t="s">
         <v>601</v>
       </c>
@@ -9755,7 +10131,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A219" s="5" t="s">
         <v>604</v>
       </c>
@@ -9787,7 +10163,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A220" s="5" t="s">
         <v>607</v>
       </c>
@@ -9819,7 +10195,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="221" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A221" s="5" t="s">
         <v>610</v>
       </c>
@@ -9851,7 +10227,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="222" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A222" s="5" t="s">
         <v>613</v>
       </c>
@@ -9883,7 +10259,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="223" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A223" s="5" t="s">
         <v>616</v>
       </c>
@@ -9915,7 +10291,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A224" s="5" t="s">
         <v>619</v>
       </c>
@@ -9947,7 +10323,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="225" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A225" s="5" t="s">
         <v>623</v>
       </c>
@@ -9979,7 +10355,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="226" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A226" s="5" t="s">
         <v>626</v>
       </c>
@@ -10011,7 +10387,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="227" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A227" s="5" t="s">
         <v>629</v>
       </c>
@@ -10043,7 +10419,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="228" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A228" s="5" t="s">
         <v>632</v>
       </c>
@@ -10075,7 +10451,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="229" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A229" s="5" t="s">
         <v>635</v>
       </c>
@@ -10107,7 +10483,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="230" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A230" s="5" t="s">
         <v>638</v>
       </c>
@@ -10139,7 +10515,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="231" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A231" s="5" t="s">
         <v>641</v>
       </c>
@@ -10171,7 +10547,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="232" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A232" s="5" t="s">
         <v>644</v>
       </c>
@@ -10203,7 +10579,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="233" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A233" s="5" t="s">
         <v>647</v>
       </c>
@@ -10235,7 +10611,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="234" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A234" s="5" t="s">
         <v>650</v>
       </c>
@@ -10267,7 +10643,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="235" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A235" s="5" t="s">
         <v>653</v>
       </c>
@@ -10299,7 +10675,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="236" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A236" s="5" t="s">
         <v>656</v>
       </c>
@@ -10331,7 +10707,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="237" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A237" s="5" t="s">
         <v>659</v>
       </c>
@@ -10363,7 +10739,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="238" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A238" s="5" t="s">
         <v>662</v>
       </c>
@@ -10395,7 +10771,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="239" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A239" s="5" t="s">
         <v>665</v>
       </c>
@@ -10427,7 +10803,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="240" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A240" s="5" t="s">
         <v>668</v>
       </c>
@@ -10459,7 +10835,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="241" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A241" s="5" t="s">
         <v>671</v>
       </c>
@@ -10491,7 +10867,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="242" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A242" s="5" t="s">
         <v>674</v>
       </c>
@@ -10523,7 +10899,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="243" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A243" s="5" t="s">
         <v>677</v>
       </c>
@@ -10555,7 +10931,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="244" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A244" s="5" t="s">
         <v>680</v>
       </c>
@@ -10587,7 +10963,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="245" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A245" s="5" t="s">
         <v>683</v>
       </c>
@@ -10619,7 +10995,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A246" s="5" t="s">
         <v>686</v>
       </c>
@@ -10651,7 +11027,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A247" s="5" t="s">
         <v>689</v>
       </c>
@@ -10683,7 +11059,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="248" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A248" s="5" t="s">
         <v>692</v>
       </c>
@@ -10715,7 +11091,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="249" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A249" s="5" t="s">
         <v>695</v>
       </c>
@@ -10747,7 +11123,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="250" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A250" s="5" t="s">
         <v>698</v>
       </c>
@@ -10779,7 +11155,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="251" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A251" s="5" t="s">
         <v>701</v>
       </c>
@@ -10811,7 +11187,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="252" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A252" s="5" t="s">
         <v>704</v>
       </c>
@@ -10843,7 +11219,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="253" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A253" s="5" t="s">
         <v>707</v>
       </c>
@@ -10875,7 +11251,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="254" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A254" s="5" t="s">
         <v>709</v>
       </c>
@@ -10907,7 +11283,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="255" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A255" s="5" t="s">
         <v>711</v>
       </c>
@@ -10939,7 +11315,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="256" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A256" s="5" t="s">
         <v>714</v>
       </c>
@@ -10971,7 +11347,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="257" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A257" s="5" t="s">
         <v>717</v>
       </c>
@@ -11003,7 +11379,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="258" spans="1:12" ht="11.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" ht="11.55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="5" t="s">
         <v>720</v>
       </c>
@@ -11035,7 +11411,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="259" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A259" s="5" t="s">
         <v>723</v>
       </c>
@@ -11067,7 +11443,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="260" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A260" s="5" t="s">
         <v>726</v>
       </c>
@@ -11099,7 +11475,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="261" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A261" s="5" t="s">
         <v>729</v>
       </c>
@@ -11131,7 +11507,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="262" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A262" s="5" t="s">
         <v>731</v>
       </c>
@@ -11163,7 +11539,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="263" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A263" s="5" t="s">
         <v>734</v>
       </c>
@@ -11195,7 +11571,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="264" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A264" s="5" t="s">
         <v>737</v>
       </c>
@@ -11227,7 +11603,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="265" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A265" s="5" t="s">
         <v>739</v>
       </c>
@@ -11259,7 +11635,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="266" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A266" s="5" t="s">
         <v>742</v>
       </c>
@@ -11291,7 +11667,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="267" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A267" s="5" t="s">
         <v>744</v>
       </c>
@@ -11323,7 +11699,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="268" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A268" s="5" t="s">
         <v>747</v>
       </c>
@@ -11355,7 +11731,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="269" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A269" s="5" t="s">
         <v>750</v>
       </c>
@@ -11387,7 +11763,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="270" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A270" s="5" t="s">
         <v>753</v>
       </c>
@@ -11419,7 +11795,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="271" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A271" s="5" t="s">
         <v>755</v>
       </c>
@@ -11451,7 +11827,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="272" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A272" s="5" t="s">
         <v>758</v>
       </c>
@@ -11484,13 +11860,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N272" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="SETTAT"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
     <cfRule type="duplicateValues" dxfId="3" priority="7"/>
